--- a/biology/Botanique/Parc_Franck-Delmas/Parc_Franck-Delmas.xlsx
+++ b/biology/Botanique/Parc_Franck-Delmas/Parc_Franck-Delmas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Frank Delmas est un parc situé à La Rochelle dans le département français de la Charente-Maritime en région Nouvelle-Aquitaine.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Frank Delmas, du nom d'un membre de la famille Delmas fusillé pour acte de résistance pendant la Seconde Guerre mondiale, est situé au sommet de l'allée du Mail. Anciennement parc d'une propriété privée, la villa Fort-Louis, toujours au centre du parc, c'est un jardin public de sept hectares au riche patrimoine botanique. Le parc est légué par la famille Delmas à la ville en 1961.
 Réhabilité à la suite de la tempête Martin de 1999, c'est également un lieu d'expérimentation de la résistance des végétaux aux contraintes climatiques.
-Le parc Frank Delmas est un site inscrit par arrêté du 30 mai 1979[1],[2].
+Le parc Frank Delmas est un site inscrit par arrêté du 30 mai 1979,.
 </t>
         </is>
       </c>
